--- a/iselUssSyncV2/OutputWSLorientation/20220524_1309_D50L474W30Q20.0U0.39H65.3G2_S2_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1309_D50L474W30Q20.0U0.39H65.3G2_S2_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.46000004966641678</v>
+        <v>0.26300428898006978</v>
       </c>
       <c r="P2" s="0">
         <v>259.22988666666674</v>
@@ -356,10 +356,10 @@
         <v>2.5430451882000007</v>
       </c>
       <c r="R2" s="0">
-        <v>1.4241530705468952</v>
+        <v>2.4908737637879184</v>
       </c>
       <c r="S2" s="0">
-        <v>0.41528295898029183</v>
+        <v>1.3529496642528527</v>
       </c>
       <c r="T2" s="0">
         <v>0.040275932140298593</v>
@@ -383,16 +383,16 @@
         <v>180000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.7856543940346492</v>
+        <v>1.0209450294794324</v>
       </c>
       <c r="AB2" s="0">
-        <v>6.1236444530359035</v>
+        <v>1.8796303036183997</v>
       </c>
       <c r="AC2" s="0">
-        <v>4.3739838674732585</v>
+        <v>2.1869919337366293</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.8222254124115809</v>
+        <v>1.9111127062057904</v>
       </c>
       <c r="AE2" s="0">
         <v>20</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>10.497628320509161</v>
+        <v>4.0666222373550287</v>
       </c>
     </row>
   </sheetData>
